--- a/Mifos Automation Excels/Client/871-RBI-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/871-RBI-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Newcreateloan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>click</t>
   </si>
@@ -31,9 +31,6 @@
     <t>disbursementon</t>
   </si>
   <si>
-    <t>submittedon</t>
-  </si>
-  <si>
     <t>approve</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Tranche Loan</t>
   </si>
   <si>
-    <t>submitbutton</t>
-  </si>
-  <si>
     <t>loantrancheclick</t>
   </si>
   <si>
@@ -143,6 +137,36 @@
   </si>
   <si>
     <t>871-RBI-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment</t>
+  </si>
+  <si>
+    <t>clickonnewloan</t>
+  </si>
+  <si>
+    <t>submitteddateon</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalance</t>
+  </si>
+  <si>
+    <t>submitloan</t>
+  </si>
+  <si>
+    <t>clickonapprove</t>
+  </si>
+  <si>
+    <t>submitapprove</t>
+  </si>
+  <si>
+    <t>clickondisburse</t>
+  </si>
+  <si>
+    <t>submitdisburse</t>
+  </si>
+  <si>
+    <t>approveloan</t>
+  </si>
+  <si>
+    <t>disburseloan</t>
   </si>
 </sst>
 </file>
@@ -203,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -233,6 +257,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -821,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -834,107 +862,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="B3" s="14">
         <v>42005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="14">
         <v>42005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
+      <c r="A5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="16">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14">
         <v>42005</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
+      <c r="A9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="B11" s="14">
         <v>42005</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="14">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14">
         <v>42005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -960,22 +1004,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1063,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1087,52 +1131,53 @@
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O1" s="13"/>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="12">
         <v>42005</v>
@@ -1155,9 +1200,9 @@
         <v>0</v>
       </c>
       <c r="M2" s="9"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1196,11 +1241,11 @@
       <c r="N3" s="9">
         <v>0</v>
       </c>
-      <c r="O3" s="9">
+      <c r="P3" s="9">
         <v>935.25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1239,11 +1284,11 @@
       <c r="N4" s="9">
         <v>0</v>
       </c>
-      <c r="O4" s="9">
+      <c r="P4" s="9">
         <v>925.38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1282,11 +1327,11 @@
       <c r="N5" s="9">
         <v>0</v>
       </c>
-      <c r="O5" s="9">
+      <c r="P5" s="9">
         <v>935.25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -1325,11 +1370,11 @@
       <c r="N6" s="9">
         <v>0</v>
       </c>
-      <c r="O6" s="9">
+      <c r="P6" s="9">
         <v>907.3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1368,11 +1413,11 @@
       <c r="N7" s="9">
         <v>0</v>
       </c>
-      <c r="O7" s="9">
+      <c r="P7" s="9">
         <v>901.28</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1411,11 +1456,11 @@
       <c r="N8" s="9">
         <v>0</v>
       </c>
-      <c r="O8" s="9">
+      <c r="P8" s="9">
         <v>890.86</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1454,11 +1499,11 @@
       <c r="N9" s="9">
         <v>0</v>
       </c>
-      <c r="O9" s="9">
+      <c r="P9" s="9">
         <v>884.29</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1497,11 +1542,11 @@
       <c r="N10" s="9">
         <v>0</v>
       </c>
-      <c r="O10" s="9">
+      <c r="P10" s="9">
         <v>875.8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1540,11 +1585,11 @@
       <c r="N11" s="9">
         <v>0</v>
       </c>
-      <c r="O11" s="9">
+      <c r="P11" s="9">
         <v>866.21</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1583,11 +1628,11 @@
       <c r="N12" s="9">
         <v>0</v>
       </c>
-      <c r="O12" s="9">
+      <c r="P12" s="9">
         <v>858.81</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1626,11 +1671,11 @@
       <c r="N13" s="9">
         <v>0</v>
       </c>
-      <c r="O13" s="9">
+      <c r="P13" s="9">
         <v>849.77</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1669,7 +1714,7 @@
       <c r="N14" s="9">
         <v>0</v>
       </c>
-      <c r="O14" s="9">
+      <c r="P14" s="9">
         <v>841.86</v>
       </c>
     </row>
@@ -1699,20 +1744,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>41974</v>
@@ -1720,7 +1765,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>1000</v>
@@ -1728,15 +1773,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>41974</v>
@@ -1744,7 +1789,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -1752,15 +1797,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>41974</v>
@@ -1768,7 +1813,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>1000</v>
@@ -1779,12 +1824,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
         <v>41974</v>
@@ -1792,12 +1837,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2">
         <v>1000</v>
@@ -1805,7 +1850,7 @@
     </row>
     <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
         <v>1000</v>
@@ -1813,7 +1858,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1821,7 +1866,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="8">
         <v>12</v>
@@ -1829,7 +1874,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1837,15 +1882,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="3">
         <v>42095</v>
@@ -1853,7 +1898,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2">
         <v>10000</v>

--- a/Mifos Automation Excels/Client/871-RBI-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/871-RBI-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Newcreateloan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
@@ -172,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -273,6 +278,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -294,7 +302,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4097" name="Picture 1" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4097" name="Picture 1" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -334,7 +348,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4098" name="Picture 2" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4098" name="Picture 2" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -374,7 +394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4099" name="Picture 3" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4099" name="Picture 3" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -414,7 +440,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4100" name="Picture 4" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261769"/>
+        <xdr:cNvPr id="4100" name="Picture 4" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261769">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -454,7 +486,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4101" name="Picture 5" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261942"/>
+        <xdr:cNvPr id="4101" name="Picture 5" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261942">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -494,7 +532,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4102" name="Picture 6" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261946"/>
+        <xdr:cNvPr id="4102" name="Picture 6" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261946">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -534,7 +578,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4103" name="fixStatusImg" descr="http://partners.cmptch.com/images/1x1.gif"/>
+        <xdr:cNvPr id="4103" name="fixStatusImg" descr="http://partners.cmptch.com/images/1x1.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -605,7 +655,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,9 +688,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,6 +740,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1107,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1127,11 +1211,12 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1169,15 +1254,16 @@
       <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="12">
         <v>42005</v>
@@ -1200,9 +1286,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="9"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N2" s="9"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1238,14 +1325,15 @@
       <c r="M3" s="9">
         <v>0</v>
       </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="P3" s="9">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
         <v>935.25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1281,14 +1369,15 @@
       <c r="M4" s="9">
         <v>0</v>
       </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
         <v>925.38</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1324,14 +1413,15 @@
       <c r="M5" s="9">
         <v>0</v>
       </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
         <v>935.25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -1367,14 +1457,15 @@
       <c r="M6" s="9">
         <v>0</v>
       </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
         <v>907.3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1410,14 +1501,15 @@
       <c r="M7" s="9">
         <v>0</v>
       </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
         <v>901.28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1453,14 +1545,15 @@
       <c r="M8" s="9">
         <v>0</v>
       </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
         <v>890.86</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1496,14 +1589,15 @@
       <c r="M9" s="9">
         <v>0</v>
       </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
         <v>884.29</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1539,14 +1633,15 @@
       <c r="M10" s="9">
         <v>0</v>
       </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
+      <c r="N10" s="9"/>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
         <v>875.8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1582,14 +1677,15 @@
       <c r="M11" s="9">
         <v>0</v>
       </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
+      <c r="N11" s="9"/>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
         <v>866.21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1625,14 +1721,15 @@
       <c r="M12" s="9">
         <v>0</v>
       </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
+      <c r="N12" s="9"/>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
         <v>858.81</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1668,14 +1765,15 @@
       <c r="M13" s="9">
         <v>0</v>
       </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9">
+      <c r="N13" s="9"/>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
         <v>849.77</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1711,10 +1809,11 @@
       <c r="M14" s="9">
         <v>0</v>
       </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9">
+      <c r="N14" s="9"/>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
         <v>841.86</v>
       </c>
     </row>
